--- a/book_list.xlsx
+++ b/book_list.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23985" windowHeight="17070"/>
+    <workbookView windowWidth="21000" windowHeight="10440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="economy" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>c++</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>C++</t>
   </si>
   <si>
     <t>C++ primer</t>
@@ -34,10 +35,43 @@
     <t>Exceptional C++</t>
   </si>
   <si>
+    <t>标准库</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C和指针</t>
+  </si>
+  <si>
+    <t>C专家编程</t>
+  </si>
+  <si>
     <t>网络</t>
   </si>
   <si>
     <t>数据结构和算法</t>
+  </si>
+  <si>
+    <t>行为心理学</t>
+  </si>
+  <si>
+    <t>认知心理学</t>
+  </si>
+  <si>
+    <t>脑科学</t>
+  </si>
+  <si>
+    <t>荷尔蒙</t>
+  </si>
+  <si>
+    <t>神经学</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>历史</t>
   </si>
 </sst>
 </file>
@@ -50,7 +84,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,69 +93,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,7 +148,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,31 +175,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,17 +214,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,19 +253,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,163 +415,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,11 +447,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -430,65 +525,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,10 +552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -523,138 +564,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -976,10 +1020,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B16"/>
+  <dimension ref="A2:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1016,15 +1060,88 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="2" ht="14.25" spans="2:2">
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
